--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465265.3441209645</v>
+        <v>454984.2907222994</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707514</v>
+        <v>12908190.36482257</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901945</v>
+        <v>3555535.184291204</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7087830.543046448</v>
+        <v>7517477.210605342</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>76.59702328455086</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>92.38090300811051</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -826,10 +828,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>114.0229165455003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -871,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>110.2477922663226</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179.4376746584948</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>97.87478467995101</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1066,10 +1068,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.9086344760402</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>19.430150203745</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>339.7406481293972</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>60.02631602996625</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1370,16 +1372,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>40.52495013957859</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>58.67748875058538</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1530,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.2773136898119</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1607,16 +1609,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>87.89432675922411</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>71.94762989914915</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1768,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>44.46305123648244</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1822,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>66.72457055527018</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.15366458399242</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>265.3439815931928</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>168.9733955350591</v>
       </c>
       <c r="C25" t="n">
-        <v>79.47996908724096</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>161.8970328977323</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.1343384674804</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3047,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3190,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>11.12043047005062</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>51.69511841098299</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.96206012172777</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3752,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.99733418373785</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3958,10 +3960,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.7395304238327</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3989,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4031,19 +4033,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4144,10 +4146,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>77.34040729634083</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>172.6837581952301</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>910.6348887030276</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C2" t="n">
-        <v>483.7341587163277</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D2" t="n">
-        <v>483.7341587163277</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E2" t="n">
-        <v>483.7341587163277</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924752</v>
@@ -4331,49 +4333,49 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336854</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002561</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2147.54052187192</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2147.54052187192</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2147.54052187192</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.54052187192</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.54052187192</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="X2" t="n">
-        <v>1735.820523039667</v>
+        <v>1719.877210187587</v>
       </c>
       <c r="Y2" t="n">
-        <v>1330.483252994558</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>595.1637600336854</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336854</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336854</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N3" t="n">
-        <v>595.1637600336854</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>712.2527365964752</v>
+        <v>833.0322042934199</v>
       </c>
       <c r="C4" t="n">
-        <v>540.2801734753912</v>
+        <v>661.0596411723359</v>
       </c>
       <c r="D4" t="n">
-        <v>376.9634006021619</v>
+        <v>497.7428682991066</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7551947550154</v>
+        <v>331.5346624519601</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7551947550154</v>
+        <v>159.6728882265205</v>
       </c>
       <c r="G4" t="n">
         <v>44.49822504924752</v>
@@ -4510,28 +4512,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U4" t="n">
-        <v>1653.036837564965</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V4" t="n">
-        <v>1371.325370172994</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1371.325370172994</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="X4" t="n">
-        <v>1128.761473618799</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="Y4" t="n">
-        <v>902.4187053085409</v>
+        <v>1023.198173005486</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.661076039655</v>
+        <v>1300.862199257099</v>
       </c>
       <c r="C5" t="n">
-        <v>1616.760346052955</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.467725237955</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="E5" t="n">
-        <v>767.4907853858125</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F5" t="n">
-        <v>342.3666035752127</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L5" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N5" t="n">
         <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2126.047833593738</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2126.047833593738</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462377</v>
+        <v>2126.047833593738</v>
       </c>
       <c r="Y5" t="n">
-        <v>2224.911252462377</v>
+        <v>1720.710563548629</v>
       </c>
     </row>
     <row r="6">
@@ -4626,40 +4628,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1009.2747476664</v>
+        <v>717.8575411161469</v>
       </c>
       <c r="C7" t="n">
-        <v>837.3021845453159</v>
+        <v>545.8849779950629</v>
       </c>
       <c r="D7" t="n">
-        <v>673.9854116720866</v>
+        <v>382.5682051218336</v>
       </c>
       <c r="E7" t="n">
-        <v>507.7772058249401</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>335.9154315995005</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>169.6584618937326</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4744,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1943.199785070405</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1668.347381242918</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1425.783484688724</v>
+        <v>908.0235098282126</v>
       </c>
       <c r="Y7" t="n">
-        <v>1199.440716378466</v>
+        <v>908.0235098282126</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>807.3383084402755</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="C8" t="n">
-        <v>807.3383084402755</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D8" t="n">
-        <v>807.3383084402755</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E8" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="W8" t="n">
-        <v>1212.675578485385</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="X8" t="n">
-        <v>1212.675578485385</v>
+        <v>1197.346929352785</v>
       </c>
       <c r="Y8" t="n">
-        <v>807.3383084402755</v>
+        <v>792.009659307675</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N9" t="n">
-        <v>595.1637600336857</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O9" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4957,7 +4959,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1745.792697513689</v>
+        <v>508.7251389345287</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.891967526989</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D11" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E11" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N11" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O11" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q11" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="X11" t="n">
-        <v>2165.64106180522</v>
+        <v>1333.910773271168</v>
       </c>
       <c r="Y11" t="n">
-        <v>2165.64106180522</v>
+        <v>928.5735032260587</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K12" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L12" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M12" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N12" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O12" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P12" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.0630618008172</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C13" t="n">
-        <v>288.0630618008172</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D13" t="n">
-        <v>288.0630618008172</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E13" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F13" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G13" t="n">
         <v>288.0630618008172</v>
@@ -5194,7 +5196,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5221,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2197.358410351454</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.223362870589</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T13" t="n">
-        <v>1783.88401509649</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U13" t="n">
-        <v>1503.699566596794</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V13" t="n">
-        <v>1221.988099204823</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W13" t="n">
-        <v>947.1356953773358</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X13" t="n">
-        <v>704.5717988231409</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.2290305128828</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1393.342889338594</v>
+        <v>556.5729941058878</v>
       </c>
       <c r="C14" t="n">
-        <v>966.4421593518939</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D14" t="n">
-        <v>543.1495385368942</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E14" t="n">
-        <v>117.1725986847517</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L14" t="n">
-        <v>595.1637600336857</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="N14" t="n">
-        <v>1696.494830002562</v>
+        <v>667.4947029893167</v>
       </c>
       <c r="O14" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.191253630124</v>
+        <v>976.4213583974179</v>
       </c>
       <c r="Y14" t="n">
-        <v>1813.191253630124</v>
+        <v>976.4213583974179</v>
       </c>
     </row>
     <row r="15">
@@ -5337,46 +5339,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K15" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L15" t="n">
-        <v>751.8547856608809</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.520320645319</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N15" t="n">
-        <v>1853.185855629757</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.185855629757</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1009.274747666399</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>837.302184545315</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D16" t="n">
         <v>792.3900115791711</v>
@@ -5431,7 +5433,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5470,16 +5472,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1943.199785070404</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
-        <v>1668.347381242917</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.783484688723</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y16" t="n">
-        <v>1199.440716378465</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>44.49822504924753</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>595.1637600336857</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>667.4947029893171</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>1218.160237973755</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P17" t="n">
-        <v>1768.825772958194</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>1813.191253630124</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1745.792697513689</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>316.1957143288386</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>866.8612493132769</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1389.040378766978</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M18" t="n">
-        <v>1389.040378766978</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1389.040378766978</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1389.040378766978</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1389.040378766978</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>315.615903911738</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>143.643340790654</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>143.643340790654</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>143.643340790654</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1811.43685720741</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1531.252408707715</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1249.540941315744</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>974.6885374882565</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>732.1246409340616</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>505.7818726238037</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,34 +5740,34 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5932,19 +5934,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U22" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="W22" t="n">
         <v>1844.556469506584</v>
@@ -6069,16 +6071,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3158.801708427964</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="C25" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="D25" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E25" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F25" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G25" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
         <v>2934.722642878299</v>
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
         <v>2011.818868109901</v>
@@ -6251,25 +6253,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.1689619702602</v>
+        <v>3774.338928650966</v>
       </c>
       <c r="C28" t="n">
-        <v>584.1689619702602</v>
+        <v>3602.366365529882</v>
       </c>
       <c r="D28" t="n">
-        <v>584.1689619702602</v>
+        <v>3439.049592656653</v>
       </c>
       <c r="E28" t="n">
-        <v>417.9607561231137</v>
+        <v>3272.841386809506</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>4708.263966054971</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>4433.411562227484</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>4190.847665673289</v>
       </c>
       <c r="Y28" t="n">
-        <v>584.1689619702602</v>
+        <v>3964.504897363031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6554,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6734,16 +6736,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>739.6560874287652</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3608.081958945198</v>
+        <v>3205.84032174079</v>
       </c>
       <c r="C34" t="n">
-        <v>3436.109395824114</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="D34" t="n">
-        <v>3272.792622950885</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F34" t="n">
         <v>2934.722642878299</v>
@@ -6883,25 +6885,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T34" t="n">
-        <v>5103.902912240871</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U34" t="n">
-        <v>4823.718463741176</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V34" t="n">
-        <v>4542.006996349204</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W34" t="n">
-        <v>4267.154592521717</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X34" t="n">
-        <v>4024.590695967522</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y34" t="n">
-        <v>3798.247927657264</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3158.801708427964</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C37" t="n">
-        <v>3106.584417103738</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D37" t="n">
-        <v>3106.584417103738</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E37" t="n">
-        <v>3106.584417103738</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878299</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
         <v>2934.722642878299</v>
@@ -7126,19 +7128,19 @@
         <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140029</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,34 +7177,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3267.187818431213</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>3267.187818431213</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>3267.187818431213</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>3100.979612584067</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>3100.979612584067</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140029</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>195.4640539534684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>195.4640539534684</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
         <v>5115.135670291427</v>
@@ -7445,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7497,10 +7499,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
         <v>1910.990343986338</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1477.48047715319</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1477.48047715319</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>1251.137708842932</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1780.689568770218</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.788838783518</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>930.4962179685185</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>504.5192781163761</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>79.39509630577632</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>79.39509630577632</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>595.1637600336857</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1145.829295018124</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1674.245717477938</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>1674.245717477938</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462377</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335517</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>1899.61838738015</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1899.61838738015</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1899.61838738015</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1899.61838738015</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1899.61838738015</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924753</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>201.1892506764427</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L45" t="n">
-        <v>751.8547856608809</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.520320645319</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N45" t="n">
-        <v>1853.185855629757</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O45" t="n">
-        <v>1853.185855629757</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>884.1145108219148</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C46" t="n">
-        <v>712.1419477008308</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D46" t="n">
-        <v>548.8251748276015</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E46" t="n">
-        <v>382.616968980455</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F46" t="n">
-        <v>210.7551947550154</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>2177.872639149549</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>2099.751015617891</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>1818.03954822592</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W46" t="n">
-        <v>1543.187144398433</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X46" t="n">
-        <v>1300.623247844238</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y46" t="n">
-        <v>1074.28047953398</v>
+        <v>793.966223959354</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
         <v>594.5398555482168</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.50743595004</v>
+        <v>571.0335849150664</v>
       </c>
       <c r="O2" t="n">
-        <v>452.4011488286619</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>578.6270469489273</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>97.94106200967676</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8073,13 +8075,13 @@
         <v>579.3997028378161</v>
       </c>
       <c r="P3" t="n">
-        <v>267.4386025673079</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L5" t="n">
-        <v>572.0660045132436</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800521</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8292,25 +8294,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N6" t="n">
-        <v>461.4026962257055</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>571.0335849150664</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8532,10 +8534,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931272</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8544,13 +8546,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N11" t="n">
-        <v>571.0335849150666</v>
+        <v>181.5591018660328</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M12" t="n">
-        <v>268.7645418748069</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>181.445652982016</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>111.3736009736646</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>452.4011488286621</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>466.3767193553318</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,25 +9169,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>110.3411813754879</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258255</v>
+        <v>728.3675687028222</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9242,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>549.9687528290792</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9416,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9477,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9717,19 +9719,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,10 +10202,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10349,7 +10351,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>105.5494758988752</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10436,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>666.8880674041833</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10449,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10841,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>123.5223236751217</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11075,10 +11077,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11145,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685299</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104035</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>571.1852249800523</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>383.4213315400418</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22550,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22559,13 +22561,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>26.72659790104014</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22607,7 +22609,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>300.046533194546</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22714,10 +22716,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.5714834632099</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>167.1348117483761</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.2122059901199</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22841,7 +22843,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>256.039736045062</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22850,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>18.44967133088691</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>220.7081073849079</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>75.90923251921748</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -23027,7 +23029,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>361.6908544236547</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23081,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23258,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>382.1067725472543</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23309,10 +23311,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23321,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>348.9253100933448</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.29091348988668</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>334.7373959276088</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>348.9253100933446</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -23546,13 +23548,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>117.2205539080146</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>334.5593267893884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23899,7 +23901,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>71.98949189919276</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23938,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -24184,10 +24186,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>163.7887810877128</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>6.759898196019265</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>19.2909134898859</v>
       </c>
       <c r="C25" t="n">
-        <v>90.77286840263218</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>116.9973198203191</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.945002159675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>63.52994056050392</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25123,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>229.7855238263084</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>118.5577190788902</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>59.37454630891094</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.3022489032172</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.2669748412071</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>47.18544517283262</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>297.9103502247821</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26074,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>200.0421967183579</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>106.2105945228213</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466035.580307375</v>
+        <v>466035.5803073749</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466035.580307375</v>
+        <v>466035.5803073749</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466035.580307375</v>
+        <v>466035.5803073749</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466035.580307375</v>
+        <v>773057.1576335378</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773057.1576335378</v>
+        <v>773057.157633538</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773057.157633538</v>
+        <v>773057.1576335378</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773057.157633538</v>
+        <v>773057.1576335378</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466035.5803073749</v>
+        <v>773057.157633538</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>135529.7532061195</v>
       </c>
       <c r="C2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="D2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="E2" t="n">
         <v>135529.7532061195</v>
       </c>
       <c r="F2" t="n">
-        <v>135529.7532061196</v>
+        <v>135529.7532061195</v>
       </c>
       <c r="G2" t="n">
-        <v>135529.7532061196</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="H2" t="n">
         <v>224812.161254979</v>
@@ -26335,25 +26337,25 @@
         <v>224812.161254979</v>
       </c>
       <c r="J2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="K2" t="n">
         <v>224812.161254979</v>
       </c>
       <c r="L2" t="n">
-        <v>224812.1612549789</v>
+        <v>224812.161254979</v>
       </c>
       <c r="M2" t="n">
         <v>224812.161254979</v>
       </c>
       <c r="N2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="O2" t="n">
         <v>224812.161254979</v>
       </c>
       <c r="P2" t="n">
-        <v>135529.7532061196</v>
+        <v>224812.1612549789</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>198041.7898901689</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173883.8490937448</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,34 +26420,34 @@
         <v>9081.11648698882</v>
       </c>
       <c r="C4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.116486988818</v>
       </c>
       <c r="D4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="E4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="F4" t="n">
-        <v>9081.116486988822</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="G4" t="n">
-        <v>9081.116486988823</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="L4" t="n">
         <v>15116.17365792744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15116.17365792744</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792743</v>
@@ -26457,7 +26459,7 @@
         <v>15116.17365792743</v>
       </c>
       <c r="P4" t="n">
-        <v>9081.116486988823</v>
+        <v>15116.17365792744</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26509,7 +26511,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-127402.3477330346</v>
       </c>
       <c r="C6" t="n">
-        <v>59002.38568170261</v>
+        <v>59002.38568170258</v>
       </c>
       <c r="D6" t="n">
-        <v>59002.38568170264</v>
+        <v>59002.38568170258</v>
       </c>
       <c r="E6" t="n">
-        <v>92629.98568170259</v>
+        <v>92629.9856817026</v>
       </c>
       <c r="F6" t="n">
-        <v>92629.98568170264</v>
+        <v>92629.98568170257</v>
       </c>
       <c r="G6" t="n">
-        <v>92629.98568170262</v>
+        <v>-66095.86448154712</v>
       </c>
       <c r="H6" t="n">
-        <v>-63006.21457888775</v>
+        <v>131945.9254086218</v>
       </c>
       <c r="I6" t="n">
         <v>131945.9254086219</v>
       </c>
       <c r="J6" t="n">
-        <v>-13587.74452619458</v>
+        <v>-13587.74452619461</v>
       </c>
       <c r="K6" t="n">
-        <v>131945.9254086218</v>
+        <v>131945.9254086219</v>
       </c>
       <c r="L6" t="n">
-        <v>131945.9254086218</v>
+        <v>131945.9254086219</v>
       </c>
       <c r="M6" t="n">
         <v>131945.9254086219</v>
       </c>
       <c r="N6" t="n">
-        <v>131945.9254086219</v>
+        <v>131945.9254086218</v>
       </c>
       <c r="O6" t="n">
+        <v>-41937.92368512292</v>
+      </c>
+      <c r="P6" t="n">
         <v>131945.9254086218</v>
-      </c>
-      <c r="P6" t="n">
-        <v>92629.98568170264</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26792,19 @@
         <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,20 +34701,20 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>533.7539620806203</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="N2" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="O2" t="n">
-        <v>415.0101894726378</v>
-      </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,10 +34783,10 @@
         <v>556.2278131155939</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>75.4259752954472</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>556.2278131155939</v>
       </c>
       <c r="P3" t="n">
-        <v>245.6677613624792</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L5" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N6" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="O8" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N11" t="n">
-        <v>533.7539620806206</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M12" t="n">
-        <v>245.6677613624789</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104168</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>444.6058781505031</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>73.0615585410419</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>556.2278131155941</v>
+        <v>690.7922068925909</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>527.4536661148496</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36136,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>69.78487510406583</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>643.7912868918553</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37561,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>94.10236418953517</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37795,10 +37797,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562019</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155941</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>533.7539620806206</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>454984.2907222994</v>
+        <v>451661.5250244386</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12908190.36482257</v>
+        <v>12908190.36482256</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3555535.184291204</v>
+        <v>3555535.184291207</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7517477.210605342</v>
+        <v>7517477.210605341</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -667,13 +667,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>92.38090300811051</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>74.03169761275359</v>
       </c>
     </row>
     <row r="3">
@@ -822,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>49.87597792716521</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>114.0229165455003</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -879,10 +879,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>97.87478467995101</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>242.5938981288108</v>
       </c>
     </row>
     <row r="6">
@@ -1059,16 +1059,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>19.430150203745</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>339.7406481293972</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>205.1669280964418</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>40.52495013957859</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>125.6557709106488</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>87.89432675922411</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>42.8769976063515</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>265.3439815931928</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.9733955350591</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.8970328977323</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3049,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>98.15366458399308</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>218.0080577057878</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>172.6837581952301</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>894.6915758509472</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C2" t="n">
-        <v>467.7908458642473</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D2" t="n">
-        <v>44.49822504924752</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924752</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924752</v>
@@ -4330,28 +4330,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>455.358312627159</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462376</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462376</v>
@@ -4369,13 +4369,13 @@
         <v>2224.911252462376</v>
       </c>
       <c r="W2" t="n">
-        <v>2131.59720901984</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X2" t="n">
-        <v>1719.877210187587</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.539940142477</v>
+        <v>2150.131759924241</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>669.8354755761782</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.501010560616</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N3" t="n">
-        <v>1220.501010560616</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0322042934199</v>
+        <v>438.7123380797763</v>
       </c>
       <c r="C4" t="n">
-        <v>661.0596411723359</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="D4" t="n">
-        <v>497.7428682991066</v>
+        <v>266.7397749586924</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5346624519601</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>159.6728882265205</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
         <v>44.49822504924752</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.43685720741</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707715</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W4" t="n">
-        <v>1249.540941315744</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X4" t="n">
-        <v>1249.540941315744</v>
+        <v>855.2210751020999</v>
       </c>
       <c r="Y4" t="n">
-        <v>1023.198173005486</v>
+        <v>628.878306791842</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1300.862199257099</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C5" t="n">
-        <v>873.9614692703988</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D5" t="n">
-        <v>873.9614692703988</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E5" t="n">
-        <v>873.9614692703988</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924752</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1674.245717477938</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
@@ -4597,22 +4597,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103421</v>
       </c>
       <c r="V5" t="n">
-        <v>2126.047833593738</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>2126.047833593738</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="X5" t="n">
-        <v>2126.047833593738</v>
+        <v>991.7500075300175</v>
       </c>
       <c r="Y5" t="n">
-        <v>1720.710563548629</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="M6" t="n">
-        <v>595.1637600336854</v>
+        <v>119.1699405917402</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="O6" t="n">
-        <v>1696.494830002561</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>717.8575411161469</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>545.8849779950629</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>382.5682051218336</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E7" t="n">
-        <v>216.3599992746871</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924752</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G7" t="n">
         <v>44.49822504924752</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>908.0235098282126</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>908.0235098282126</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>448.8372874597989</v>
+        <v>549.6059248847499</v>
       </c>
       <c r="C8" t="n">
-        <v>448.8372874597989</v>
+        <v>549.6059248847499</v>
       </c>
       <c r="D8" t="n">
-        <v>448.8372874597989</v>
+        <v>549.6059248847499</v>
       </c>
       <c r="E8" t="n">
-        <v>448.8372874597989</v>
+        <v>549.6059248847499</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924752</v>
@@ -4813,43 +4813,43 @@
         <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462376</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462376</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058788</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185037</v>
+        <v>1763.054543461765</v>
       </c>
       <c r="W8" t="n">
-        <v>1609.066928185037</v>
+        <v>1366.663193762112</v>
       </c>
       <c r="X8" t="n">
-        <v>1197.346929352785</v>
+        <v>954.9431949298596</v>
       </c>
       <c r="Y8" t="n">
-        <v>792.009659307675</v>
+        <v>549.6059248847499</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764434</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608814</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608814</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924752</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>508.7251389345287</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="C11" t="n">
-        <v>467.7908458642473</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="D11" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H11" t="n">
         <v>44.49822504924752</v>
@@ -5044,49 +5044,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L11" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M11" t="n">
         <v>957.767218850581</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.603903091852</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O11" t="n">
-        <v>1100.603903091852</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.26943807629</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R11" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T11" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U11" t="n">
-        <v>1745.630772103421</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V11" t="n">
-        <v>1745.630772103421</v>
+        <v>1993.618937213648</v>
       </c>
       <c r="W11" t="n">
-        <v>1745.630772103421</v>
+        <v>1597.227587513995</v>
       </c>
       <c r="X11" t="n">
-        <v>1333.910773271168</v>
+        <v>1185.507588681743</v>
       </c>
       <c r="Y11" t="n">
-        <v>928.5735032260587</v>
+        <v>1185.507588681743</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>44.49822504924752</v>
       </c>
       <c r="L12" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M12" t="n">
-        <v>1145.829295018124</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="N12" t="n">
-        <v>1696.494830002561</v>
+        <v>205.6899987133988</v>
       </c>
       <c r="O12" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I13" t="n">
         <v>44.49822504924752</v>
@@ -5226,25 +5226,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U13" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>2061.60438497749</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>556.5729941058878</v>
+        <v>506.2958262924762</v>
       </c>
       <c r="C14" t="n">
-        <v>467.7908458642473</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="D14" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L14" t="n">
-        <v>667.4947029893167</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M14" t="n">
-        <v>667.4947029893167</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N14" t="n">
-        <v>667.4947029893167</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O14" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U14" t="n">
-        <v>1745.630772103421</v>
+        <v>2077.233859743243</v>
       </c>
       <c r="V14" t="n">
-        <v>1388.141357229671</v>
+        <v>1719.744444869492</v>
       </c>
       <c r="W14" t="n">
-        <v>1388.141357229671</v>
+        <v>1323.353095169839</v>
       </c>
       <c r="X14" t="n">
-        <v>976.4213583974179</v>
+        <v>911.6330963375859</v>
       </c>
       <c r="Y14" t="n">
-        <v>976.4213583974179</v>
+        <v>506.2958262924762</v>
       </c>
     </row>
     <row r="15">
@@ -5339,40 +5339,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O15" t="n">
-        <v>866.8612493132766</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P15" t="n">
         <v>1307.021068682275</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5466,22 +5466,22 @@
         <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5761,43 +5761,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>964.4851292537592</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>2112.580693338092</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.580693338092</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,13 +6071,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
         <v>1021.509065974867</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3178.287479629868</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6229,22 +6229,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6314,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.338928650966</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3602.366365529882</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3439.049592656653</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3272.841386809506</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4871.796322517327</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4708.263966054971</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4433.411562227484</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4190.847665673289</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3964.504897363031</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6736,16 +6736,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.84032174079</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4139.765359144795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3864.912955317308</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3622.349058763114</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6955,10 +6955,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7025,13 +7025,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>4434.41250242486</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>4434.41250242486</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>4434.41250242486</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7183,19 +7183,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7262,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7666,10 +7666,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>84.50867025038097</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>571.0335849150664</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O2" t="n">
         <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>97.94106200967676</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378161</v>
+        <v>460.2559062950367</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>571.1852249800521</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660328</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8303,7 +8303,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>91.00089423008643</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291355</v>
@@ -8312,13 +8312,13 @@
         <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>180.0446044646224</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8461,22 +8461,22 @@
         <v>594.5398555482168</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N8" t="n">
-        <v>571.0335849150664</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>451.1348640772358</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>180.6729970931272</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>184.1630016116743</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378161</v>
@@ -8552,10 +8552,10 @@
         <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,19 +8692,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>181.5591018660328</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955935</v>
       </c>
       <c r="P11" t="n">
         <v>593.8031749258253</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279219</v>
+        <v>185.9167539104606</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>181.445652982016</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>111.3736009736646</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9020,10 +9020,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P15" t="n">
-        <v>466.3767193553318</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>728.3675687028222</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P21" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,16 +9719,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O24" t="n">
         <v>921.6378271075471</v>
@@ -9877,13 +9877,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>660.9541399377149</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10351,16 +10351,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>105.5494758988752</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10436,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,16 +10673,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>304.4845953330648</v>
+        <v>423.228367941047</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>100.0581876036193</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>383.4213315400418</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22555,13 +22555,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22609,13 +22609,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>300.046533194546</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>327.252199731905</v>
       </c>
     </row>
     <row r="3">
@@ -22710,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>114.6701458615098</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50.5714834632099</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22767,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -22795,13 +22795,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22837,22 +22837,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>256.039736045062</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.6899992158477</v>
       </c>
     </row>
     <row r="6">
@@ -22947,16 +22947,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184646</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>220.7081073849079</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.90923251921748</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -23032,13 +23032,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>215.7060118960519</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>382.1067725472543</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>228.2587498143642</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>334.7373959276088</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23515,7 +23515,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>212.8943627032003</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>6.759898196019265</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.2909134898859</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>116.9973198203191</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.52994056050392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>47.18544517283262</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>106.2105945228213</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>466035.5803073748</v>
+        <v>466035.5803073749</v>
       </c>
     </row>
     <row r="3">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773057.157633538</v>
+        <v>773057.1576335378</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773057.157633538</v>
+        <v>773057.1576335378</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773057.157633538</v>
+        <v>773057.1576335378</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135529.7532061195</v>
+        <v>135529.7532061194</v>
       </c>
       <c r="C2" t="n">
         <v>135529.7532061195</v>
@@ -26334,28 +26334,28 @@
         <v>224812.161254979</v>
       </c>
       <c r="I2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="J2" t="n">
         <v>224812.1612549789</v>
       </c>
       <c r="K2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="L2" t="n">
         <v>224812.161254979</v>
       </c>
       <c r="M2" t="n">
-        <v>224812.161254979</v>
+        <v>224812.1612549789</v>
       </c>
       <c r="N2" t="n">
         <v>224812.1612549789</v>
       </c>
       <c r="O2" t="n">
+        <v>224812.1612549789</v>
+      </c>
+      <c r="P2" t="n">
         <v>224812.161254979</v>
-      </c>
-      <c r="P2" t="n">
-        <v>224812.1612549789</v>
       </c>
     </row>
     <row r="3">
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>173883.8490937448</v>
+        <v>173883.8490937447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>9081.11648698882</v>
       </c>
       <c r="C4" t="n">
-        <v>9081.116486988818</v>
+        <v>9081.11648698882</v>
       </c>
       <c r="D4" t="n">
         <v>9081.11648698882</v>
@@ -26429,22 +26429,22 @@
         <v>9081.11648698882</v>
       </c>
       <c r="F4" t="n">
-        <v>9081.11648698882</v>
+        <v>9081.116486988822</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
         <v>15116.17365792744</v>
@@ -26456,7 +26456,7 @@
         <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="P4" t="n">
         <v>15116.17365792744</v>
@@ -26481,7 +26481,7 @@
         <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127402.3477330346</v>
+        <v>-128011.3934455243</v>
       </c>
       <c r="C6" t="n">
-        <v>59002.38568170258</v>
+        <v>58393.33996921292</v>
       </c>
       <c r="D6" t="n">
-        <v>59002.38568170258</v>
+        <v>58393.33996921295</v>
       </c>
       <c r="E6" t="n">
-        <v>92629.9856817026</v>
+        <v>92020.93996921291</v>
       </c>
       <c r="F6" t="n">
-        <v>92629.98568170257</v>
+        <v>92020.93996921289</v>
       </c>
       <c r="G6" t="n">
-        <v>-66095.86448154712</v>
+        <v>-66146.89514373138</v>
       </c>
       <c r="H6" t="n">
-        <v>131945.9254086218</v>
+        <v>131894.8947464376</v>
       </c>
       <c r="I6" t="n">
-        <v>131945.9254086219</v>
+        <v>131894.8947464376</v>
       </c>
       <c r="J6" t="n">
-        <v>-13587.74452619461</v>
+        <v>-13638.77518837895</v>
       </c>
       <c r="K6" t="n">
-        <v>131945.9254086219</v>
+        <v>131894.8947464376</v>
       </c>
       <c r="L6" t="n">
-        <v>131945.9254086219</v>
+        <v>131894.8947464376</v>
       </c>
       <c r="M6" t="n">
-        <v>131945.9254086219</v>
+        <v>131894.8947464375</v>
       </c>
       <c r="N6" t="n">
-        <v>131945.9254086218</v>
+        <v>131894.8947464375</v>
       </c>
       <c r="O6" t="n">
-        <v>-41937.92368512292</v>
+        <v>-41988.9543473072</v>
       </c>
       <c r="P6" t="n">
-        <v>131945.9254086218</v>
+        <v>131894.8947464376</v>
       </c>
     </row>
   </sheetData>
@@ -26801,7 +26801,7 @@
         <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>722.5561044572629</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>722.5561044572629</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>722.5561044572629</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>48.74406945557163</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533.7539620806203</v>
       </c>
       <c r="O2" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>437.0840165728145</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="L3" t="n">
-        <v>75.4259752954472</v>
-      </c>
-      <c r="M3" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>144.2794790315867</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="L5" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="M5" t="n">
-        <v>533.7539620806203</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>67.90411371775845</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155939</v>
@@ -35032,13 +35032,13 @@
         <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>556.2278131155939</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N8" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.8199733981326</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155939</v>
@@ -35272,10 +35272,10 @@
         <v>556.2278131155939</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="P11" t="n">
         <v>556.2278131155939</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>162.8199733981326</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="N12" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="O12" t="n">
-        <v>158.2737632597938</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>73.06155854104168</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P14" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P15" t="n">
-        <v>444.6058781505031</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>690.7922068925909</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P21" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O24" t="n">
         <v>898.4659373853249</v>
@@ -36597,13 +36597,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>623.5228770382831</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>69.78487510406583</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>267.053332433633</v>
+        <v>385.7971050416152</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>62.48282579338804</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
